--- a/paper_plots/recent_results.xlsx
+++ b/paper_plots/recent_results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimiromelyusik/neuroscience-on-FABRIC/paper_plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22137C44-9E07-3449-A349-C5C4FA5CF647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5641DB-D88E-DE49-B6F7-5AAF0CC6FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="2" xr2:uid="{611EFAC6-D98C-754B-A2DD-DBA26CEFCA98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="final" sheetId="2" r:id="rId2"/>
     <sheet name="paper" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -540,7 +540,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
